--- a/design/equations.xlsx
+++ b/design/equations.xlsx
@@ -363,7 +363,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,7 +377,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -385,7 +385,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -394,7 +394,7 @@
       </c>
       <c r="B4">
         <f>((($B$1*(A4+$B$2)/(1+ABS($B$1*(A4+$B$2))))+1)/2)</f>
-        <v>6.5789473684210509E-2</v>
+        <v>0.11904761904761907</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -403,7 +403,7 @@
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B34" si="0">((($B$1*(A5+$B$2)/(1+ABS($B$1*(A5+$B$2))))+1)/2)</f>
-        <v>6.9444444444444475E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -412,7 +412,7 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>7.3529411764705899E-2</v>
+        <v>0.13157894736842102</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -421,7 +421,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>7.8125E-2</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -430,7 +430,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14705882352941174</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -439,7 +439,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>8.9285714285714302E-2</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -448,7 +448,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>9.6153846153846145E-2</v>
+        <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,7 +457,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>0.10416666666666669</v>
+        <v>0.17857142857142855</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -466,7 +466,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>0.1136363636363637</v>
+        <v>0.19230769230769229</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -475,7 +475,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0.20833333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -484,7 +484,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>0.1388888888888889</v>
+        <v>0.22727272727272729</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0.15625</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -502,7 +502,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>0.1785714285714286</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -511,7 +511,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>0.20833333333333331</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -520,7 +520,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.3571428571428571</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>0.3125</v>
+        <v>0.41666666666666663</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -538,7 +538,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,7 +556,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>0.6875</v>
+        <v>0.64285714285714279</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -565,7 +565,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>0.79166666666666674</v>
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,7 +583,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>0.8214285714285714</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -592,7 +592,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>0.84375</v>
+        <v>0.77272727272727271</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -601,7 +601,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>0.86111111111111116</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -610,7 +610,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>0.80769230769230771</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>0.88636363636363624</v>
+        <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>0.89583333333333326</v>
+        <v>0.83333333333333326</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>0.90384615384615385</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>0.9107142857142857</v>
+        <v>0.85294117647058831</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>0.91666666666666696</v>
+        <v>0.86111111111111149</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -664,7 +664,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>0.92187500000000022</v>
+        <v>0.86842105263157932</v>
       </c>
     </row>
   </sheetData>
